--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_hit@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_hit@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4187957966735029</v>
+        <v>0.4150169328266196</v>
       </c>
       <c r="C2" t="n">
-        <v>6.218289928030008e-211</v>
+        <v>3.666728364358303e-210</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,88 +476,100 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1649358865804782</v>
+        <v>0.1067842068565804</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5346854698521142</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>3.732715306777337e-36</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1590207279484008</v>
+        <v>0.09314933105780217</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1613010331337648</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>0.0001435369621022959</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1408295195868133</v>
+        <v>0.07839930099736392</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3883104178650826</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>1.049640857026248e-06</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Skewness of Rating</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1060039012102753</v>
+        <v>0.05066172904176576</v>
       </c>
       <c r="C6" t="n">
-        <v>0.04024907952810108</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.2208641368292034</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.09697823699406383</v>
+        <v>0.04884236594708394</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0608710280324704</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>0.0386945872843538</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07964756113170823</v>
+        <v>0.04156778216110238</v>
       </c>
       <c r="C8" t="n">
-        <v>4.390412435621421e-09</v>
+        <v>7.446402955255412e-07</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -568,380 +580,322 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.0786886105180411</v>
+        <v>0.03683151883626197</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02342694697862838</v>
+        <v>4.392511600514349e-06</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Kurtosis of Rating</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.06172887274183089</v>
+        <v>0.03117799670891451</v>
       </c>
       <c r="C10" t="n">
-        <v>0.162329508021799</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>0.001391983355091397</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04436622700301111</v>
+        <v>0.02590942681177599</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2275557373519302</v>
+        <v>0.4558155388482794</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.03823597838791396</v>
+        <v>0.01347359448438606</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4231680179320108</v>
+        <v>0.0555911663204523</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01576459159242896</v>
+        <v>0.008479318543625701</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7556221270164319</v>
+        <v>0.3896078287429153</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01243197229504627</v>
+        <v>0.002652130248788465</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8081748134110391</v>
+        <v>0.778332886798963</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.009422919060288359</v>
+        <v>0.00240755005941648</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8164977902185246</v>
+        <v>0.9761457512326049</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.008034895738244618</v>
+        <v>4.023059525069903e-05</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7514629791610221</v>
+        <v>0.9959250048695477</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.007729695854184523</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.76041432356559</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.005675322569931104</v>
+        <v>-0.0001257846238234828</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7715339859129158</v>
+        <v>0.9864658350475197</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.005096767843650263</v>
+        <v>-0.002223280075716698</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7094309547449764</v>
+        <v>0.9059356124537229</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.003764197037467144</v>
+        <v>-0.004144468361865439</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7783866482486419</v>
+        <v>0.8545543279833387</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kurtosis of Long Tail Items</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.0005565414153180029</v>
+        <v>-0.01095427204224429</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9918434468681538</v>
+        <v>0.2489143443914909</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
-      <c r="D22" t="inlineStr"/>
+        <v>-0.02295836307947741</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.009070270190996035</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.005239031585788225</v>
+        <v>-0.03050811265191439</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7983519140494397</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>0.02570444834697933</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.005420096757356248</v>
+        <v>-0.03258580498091362</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5906735235909806</v>
+        <v>0.2154291197885552</v>
       </c>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Kurtosis of Popularity Bias</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.006660289637532478</v>
+        <v>-0.03711960542929818</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6707165483064218</v>
+        <v>0.7063291218163231</v>
       </c>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.01221172847189504</v>
+        <v>-0.04173271571977913</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2548100799623841</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>0.0001146677353132718</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Standart Deviation of Long Tail Items</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.01416980413621254</v>
+        <v>-0.04315463507004078</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7374753759815665</v>
+        <v>0.1340269054297011</v>
       </c>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-0.05014975122078527</v>
+        <v>-0.07835103119227999</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2759148302393802</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>5.622501341909278e-06</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-0.0727439344203888</v>
+        <v>-0.08008053594421627</v>
       </c>
       <c r="C29" t="n">
-        <v>9.025762444097044e-07</v>
+        <v>0.0001398617578982449</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
           <t>***</t>
         </is>
       </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>giniindex@5</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.09647571202051894</v>
-      </c>
-      <c r="C30" t="n">
-        <v>5.824084720962655e-06</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Number of Ratings</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>-0.1342075590321476</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5900745809599364</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>-0.1358334844031132</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.004963086540140883</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Number of Items</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>-0.1472492657982779</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.1493395186199061</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Number of Users</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>-0.1596610316101501</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.3590735251476054</v>
-      </c>
-      <c r="D34" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_hit@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_hit@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4120057125211891</v>
+        <v>0.4151906633760912</v>
       </c>
       <c r="C2" t="n">
-        <v>5.417613387936318e-231</v>
+        <v>2.302718516199148e-232</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,14 +476,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.2123878169266527</v>
+        <v>0.1299852872591883</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0004081847690538319</v>
+        <v>6.369599850332543e-06</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -498,10 +498,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1718476167469456</v>
+        <v>0.1288627193927143</v>
       </c>
       <c r="C4" t="n">
-        <v>2.166657483852437e-12</v>
+        <v>1.183327560822647e-08</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -512,50 +512,50 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1330110023705964</v>
+        <v>0.1213291016504449</v>
       </c>
       <c r="C5" t="n">
-        <v>0.009110738226496018</v>
+        <v>3.750561379444307e-08</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1053102317306453</v>
+        <v>0.1081094832379626</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001647461569246928</v>
+        <v>0.004436479295745553</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08970786121993031</v>
+        <v>0.0819896833313298</v>
       </c>
       <c r="C7" t="n">
-        <v>6.809781936866127e-05</v>
+        <v>3.713701410924257e-28</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -566,14 +566,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.08757142510928116</v>
+        <v>0.06696944405078376</v>
       </c>
       <c r="C8" t="n">
-        <v>1.81654524404454e-19</v>
+        <v>0.000108446437393267</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -584,46 +584,50 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.07418184636704615</v>
+        <v>0.05518375713518944</v>
       </c>
       <c r="C9" t="n">
-        <v>9.691885176389582e-05</v>
+        <v>0.004626728270054561</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07412702268023913</v>
+        <v>0.03842924010967091</v>
       </c>
       <c r="C10" t="n">
-        <v>0.09702855560617084</v>
-      </c>
-      <c r="D10" t="inlineStr"/>
+        <v>0.0003773556067826452</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06441273547354019</v>
+        <v>0.02854020394111306</v>
       </c>
       <c r="C11" t="n">
-        <v>3.00691824217626e-05</v>
+        <v>0.000350418453356207</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -634,296 +638,236 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04528783280361055</v>
+        <v>0.01178568691559543</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003218122135812922</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.4071603403675977</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04089749625710126</v>
+        <v>0.004049038051352904</v>
       </c>
       <c r="C13" t="n">
-        <v>0.002637907515361381</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.8042246704479952</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0153042179749036</v>
+        <v>-0.0001308407956099253</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3294245252547686</v>
+        <v>0.9942930313588783</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01227982949739648</v>
+        <v>-0.0002179929859904839</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1335331015450089</v>
+        <v>0.979810723961968</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.005271473832973821</v>
+        <v>-0.005831401788170083</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5014258066908945</v>
+        <v>0.4162998766550688</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.005033458493160642</v>
+        <v>-0.008970844506386345</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8039156675705607</v>
+        <v>0.1511293163462732</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.0001875032909947338</v>
+        <v>-0.0222690234939521</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9873184420137644</v>
+        <v>0.5458747726460005</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.001994335958209248</v>
+        <v>-0.05351510839908076</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9679249692857353</v>
+        <v>0.06699875426441922</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.00686798548313685</v>
+        <v>-0.05482281159194075</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8744469614270758</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>0.00119860730222018</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.02005979841535962</v>
+        <v>-0.05586028152007601</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3050363238617613</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>0.04577627197386645</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.02770077063995358</v>
+        <v>-0.07043095518273926</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4684172492033083</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.01094979713589678</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.0630129872446987</v>
+        <v>-0.09506048910121626</v>
       </c>
       <c r="C23" t="n">
-        <v>0.02059562625633651</v>
+        <v>1.653438606303187e-07</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.06573513779415682</v>
+        <v>-0.09837183101340631</v>
       </c>
       <c r="C24" t="n">
-        <v>0.003916861598395446</v>
+        <v>1.916189967705121e-06</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.06697103157492537</v>
+        <v>-0.1429033737627582</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07843237338240514</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>6.973443506321671e-08</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1115314835157065</v>
+        <v>-0.1476826274644318</v>
       </c>
       <c r="C26" t="n">
-        <v>0.003909286797990524</v>
+        <v>4.590657525690935e-08</v>
       </c>
       <c r="D26" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Mean Rating</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-0.1266940951580796</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.1572736751637643</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Value Unfairness of sensitive attribute</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-0.1314820192402879</v>
-      </c>
-      <c r="C28" t="n">
-        <v>8.294506049553329e-12</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>giniindex@5</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-0.1599523649148497</v>
-      </c>
-      <c r="C29" t="n">
-        <v>2.403618523644169e-07</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>-0.2310572962856191</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.17062544590426e-08</v>
-      </c>
-      <c r="D30" t="inlineStr">
         <is>
           <t>***</t>
         </is>

--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_hit@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_hit@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,122 +458,98 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.4151906633760912</v>
+        <v>55088634141.22455</v>
       </c>
       <c r="C2" t="n">
-        <v>2.302718516199148e-232</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.7747495008384342</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1299852872591883</v>
+        <v>39215219573.80734</v>
       </c>
       <c r="C3" t="n">
-        <v>6.369599850332543e-06</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.7747495008383037</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1288627193927143</v>
+        <v>39215219573.75232</v>
       </c>
       <c r="C4" t="n">
-        <v>1.183327560822647e-08</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.7747495008386074</v>
+      </c>
+      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1213291016504449</v>
+        <v>25786328304.76932</v>
       </c>
       <c r="C5" t="n">
-        <v>3.750561379444307e-08</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.7747495008371597</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1081094832379626</v>
+        <v>25786328304.59918</v>
       </c>
       <c r="C6" t="n">
-        <v>0.004436479295745553</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.7747495008386065</v>
+      </c>
+      <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0819896833313298</v>
+        <v>25786328304.48334</v>
       </c>
       <c r="C7" t="n">
-        <v>3.713701410924257e-28</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.7747495008395917</v>
+      </c>
+      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06696944405078376</v>
+        <v>0.3065610771038253</v>
       </c>
       <c r="C8" t="n">
-        <v>0.000108446437393267</v>
+        <v>5.331186606258234e-06</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -584,32 +560,32 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05518375713518944</v>
+        <v>0.2800295534300795</v>
       </c>
       <c r="C9" t="n">
-        <v>0.004626728270054561</v>
+        <v>8.178300814917692e-15</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.03842924010967091</v>
+        <v>0.1556738521203458</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0003773556067826452</v>
+        <v>6.025816132756126e-10</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -620,130 +596,126 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02854020394111306</v>
+        <v>0.0853302302965448</v>
       </c>
       <c r="C11" t="n">
-        <v>0.000350418453356207</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1428504203828994</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01178568691559543</v>
+        <v>0.0567599896669299</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4071603403675977</v>
+        <v>0.1222217900818157</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.004049038051352904</v>
+        <v>0.0525559000154617</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8042246704479952</v>
+        <v>0.0767904001894658</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.0001308407956099253</v>
+        <v>0.0524747063956261</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9942930313588783</v>
+        <v>0.1837593656944995</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.0002179929859904839</v>
+        <v>0.05111088339332934</v>
       </c>
       <c r="C15" t="n">
-        <v>0.979810723961968</v>
+        <v>0.5221664568343101</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.005831401788170083</v>
+        <v>0.05036158751355616</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4162998766550688</v>
+        <v>0.3689001313868259</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.008970844506386345</v>
+        <v>0.02185255814302334</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1511293163462732</v>
+        <v>0.669434082012166</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.0222690234939521</v>
+        <v>0.008972660576516476</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5458747726460005</v>
+        <v>0.9560924053590145</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.05351510839908076</v>
+        <v>0.005454245143222389</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06699875426441922</v>
+        <v>0.9488524672474867</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
@@ -754,82 +726,66 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.05482281159194075</v>
+        <v>-0.009767419360293884</v>
       </c>
       <c r="C20" t="n">
-        <v>0.00119860730222018</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.7605013989503339</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.05586028152007601</v>
+        <v>-0.02912024442703491</v>
       </c>
       <c r="C21" t="n">
-        <v>0.04577627197386645</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.3424443978792238</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.07043095518273926</v>
+        <v>-0.05808021934883212</v>
       </c>
       <c r="C22" t="n">
-        <v>0.01094979713589678</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.3863886567738407</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.09506048910121626</v>
+        <v>-0.07282305134062764</v>
       </c>
       <c r="C23" t="n">
-        <v>1.653438606303187e-07</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.09168975859285655</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.09837183101340631</v>
+        <v>-0.1244019676505591</v>
       </c>
       <c r="C24" t="n">
-        <v>1.916189967705121e-06</v>
+        <v>0.0001501480731487585</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -840,38 +796,84 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1429033737627582</v>
+        <v>-0.1393604486567889</v>
       </c>
       <c r="C25" t="n">
-        <v>6.973443506321671e-08</v>
+        <v>0.02633082077814458</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1476826274644318</v>
+        <v>-0.1491819822108467</v>
       </c>
       <c r="C26" t="n">
-        <v>4.590657525690935e-08</v>
+        <v>0.004359879735984703</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>***</t>
-        </is>
-      </c>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>-0.1740471038706901</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.003558843088009922</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Sensitive Feature_Age</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>-120090182019.5654</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.7747495008385453</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Sensitive Feature_Gender</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>-120090182019.59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.7747495008385008</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_hit@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_hit@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,10 +462,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>55088634141.22455</v>
+        <v>41699304620.0976</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7747495008384342</v>
+        <v>0.80416878209806</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
@@ -476,10 +476,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39215219573.80734</v>
+        <v>27507447966.72452</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7747495008383037</v>
+        <v>0.8041687820976956</v>
       </c>
       <c r="D3" t="inlineStr"/>
     </row>
@@ -490,10 +490,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>39215219573.75232</v>
+        <v>27507447966.61755</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7747495008386074</v>
+        <v>0.8041687820984377</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
@@ -504,10 +504,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>25786328304.76932</v>
+        <v>18221771153.32562</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7747495008371597</v>
+        <v>0.8041687820964875</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>25786328304.59918</v>
+        <v>18221771153.15858</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7747495008386065</v>
+        <v>0.8041687820982473</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
@@ -532,24 +532,24 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>25786328304.48334</v>
+        <v>18221771153.04324</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7747495008395917</v>
+        <v>0.8041687820994616</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.3065610771038253</v>
+        <v>0.2712765201384789</v>
       </c>
       <c r="C8" t="n">
-        <v>5.331186606258234e-06</v>
+        <v>5.261269853731772e-14</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -560,14 +560,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2800295534300795</v>
+        <v>0.2359360654501033</v>
       </c>
       <c r="C9" t="n">
-        <v>8.178300814917692e-15</v>
+        <v>0.0001676018324917555</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -578,60 +578,64 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>KS Statistic of sensitive attribute</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1556738521203458</v>
+        <v>0.1648450119694923</v>
       </c>
       <c r="C10" t="n">
-        <v>6.025816132756126e-10</v>
+        <v>0.001356877968573941</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0853302302965448</v>
+        <v>0.150180630675426</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1428504203828994</v>
-      </c>
-      <c r="D11" t="inlineStr"/>
+        <v>2.407028775202049e-09</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0567599896669299</v>
+        <v>0.05282992919754335</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1222217900818157</v>
+        <v>0.2929811891537768</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0525559000154617</v>
+        <v>0.0472986977370351</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0767904001894658</v>
+        <v>0.1978775221567238</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
@@ -642,186 +646,186 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0524747063956261</v>
+        <v>0.04497739691499196</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1837593656944995</v>
+        <v>0.2553913015311434</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.05111088339332934</v>
+        <v>0.03162248074623818</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5221664568343101</v>
+        <v>0.274097834775876</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.05036158751355616</v>
+        <v>0.02875434477238261</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3689001313868259</v>
+        <v>0.8603899851831217</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.02185255814302334</v>
+        <v>0.00606643925008632</v>
       </c>
       <c r="C17" t="n">
-        <v>0.669434082012166</v>
+        <v>0.8296775003742043</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.008972660576516476</v>
+        <v>0.005336387379640893</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9560924053590145</v>
+        <v>0.8663810368339108</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.005454245143222389</v>
+        <v>-0.01467150863390797</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9488524672474867</v>
+        <v>0.8483598331143329</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.009767419360293884</v>
+        <v>-0.01991315284898296</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7605013989503339</v>
+        <v>0.6702311735250499</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.02912024442703491</v>
+        <v>-0.02295081127665986</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3424443978792238</v>
+        <v>0.7866222621882895</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.05808021934883212</v>
+        <v>-0.03829371447221433</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3863886567738407</v>
+        <v>0.4139714240199367</v>
       </c>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.07282305134062764</v>
+        <v>-0.06598469430278966</v>
       </c>
       <c r="C23" t="n">
-        <v>0.09168975859285655</v>
+        <v>0.3268437027493291</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.1244019676505591</v>
+        <v>-0.09557520556642594</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0001501480731487585</v>
+        <v>0.0249688886881168</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1393604486567889</v>
+        <v>-0.1202566784425576</v>
       </c>
       <c r="C25" t="n">
-        <v>0.02633082077814458</v>
+        <v>0.0002595508447702987</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1491819822108467</v>
+        <v>-0.1808324811066227</v>
       </c>
       <c r="C26" t="n">
-        <v>0.004359879735984703</v>
+        <v>0.002544954583323742</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -832,48 +836,30 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-0.1740471038706901</v>
+        <v>-87428523739.9176</v>
       </c>
       <c r="C27" t="n">
-        <v>0.003558843088009922</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.8041687820981194</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-120090182019.5654</v>
+        <v>-87428523739.94202</v>
       </c>
       <c r="C28" t="n">
-        <v>0.7747495008385453</v>
+        <v>0.8041687820980659</v>
       </c>
       <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Gender</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>-120090182019.59</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.7747495008385008</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_hit@5.xlsx
+++ b/evaluation/accuracy_metric_based/OLS_Regression_Feature_Analysis_hit@5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,408 +458,370 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41699304620.0976</v>
+        <v>0.546763049236594</v>
       </c>
       <c r="C2" t="n">
-        <v>0.80416878209806</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
+        <v>6.231606615108269e-06</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27507447966.72452</v>
+        <v>0.4408078835009135</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8041687820976956</v>
-      </c>
-      <c r="D3" t="inlineStr"/>
+        <v>8.596591100967817e-36</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27507447966.61755</v>
+        <v>0.2914264858811659</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8041687820984377</v>
-      </c>
-      <c r="D4" t="inlineStr"/>
+        <v>7.035677742418623e-07</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18221771153.32562</v>
+        <v>0.2488210810923321</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8041687820964875</v>
-      </c>
-      <c r="D5" t="inlineStr"/>
+        <v>0.01022124005887518</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18221771153.15858</v>
+        <v>0.1894205001752478</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8041687820982473</v>
+        <v>0.1363847630317341</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18221771153.04324</v>
+        <v>0.18157125575435</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8041687820994616</v>
-      </c>
-      <c r="D7" t="inlineStr"/>
+        <v>0.03577412901078502</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.2712765201384789</v>
+        <v>0.1717554008553814</v>
       </c>
       <c r="C8" t="n">
-        <v>5.261269853731772e-14</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5741822160042895</v>
+      </c>
+      <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.2359360654501033</v>
+        <v>0.1254435953304924</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001676018324917555</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.2020361500002282</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.1648450119694923</v>
+        <v>0.1031476130634542</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001356877968573941</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.5374017735753032</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>KS Statistic of sensitive attribute</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.150180630675426</v>
+        <v>0.03531811483490772</v>
       </c>
       <c r="C11" t="n">
-        <v>2.407028775202049e-09</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5861867290397487</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.05282992919754335</v>
+        <v>0.001567850702766681</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2929811891537768</v>
+        <v>0.9763349807189233</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0472986977370351</v>
+        <v>-0.007753106883455846</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1978775221567238</v>
+        <v>0.9587263351808206</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.04497739691499196</v>
+        <v>-0.0163400758992207</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2553913015311434</v>
+        <v>0.7551993971738867</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.03162248074623818</v>
+        <v>-0.02409081571493368</v>
       </c>
       <c r="C15" t="n">
-        <v>0.274097834775876</v>
+        <v>0.7021988523963768</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.02875434477238261</v>
+        <v>-0.02785104716500537</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8603899851831217</v>
+        <v>0.8496168886576503</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.00606643925008632</v>
+        <v>-0.03090422576441999</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8296775003742043</v>
+        <v>0.8450471146786742</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.005336387379640893</v>
+        <v>-0.03491013427603572</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8663810368339108</v>
+        <v>0.666280543894218</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01467150863390797</v>
+        <v>-0.1074262433468615</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8483598331143329</v>
+        <v>0.3545744152046785</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01991315284898296</v>
+        <v>-0.1298326254792147</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6702311735250499</v>
+        <v>0.1654394095833721</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.02295081127665986</v>
+        <v>-0.154465595636575</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7866222621882895</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>0.01215001933907013</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.03829371447221433</v>
+        <v>-0.1660084610183506</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4139714240199367</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.01569417639228231</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.06598469430278966</v>
+        <v>-0.1920396721360664</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3268437027493291</v>
+        <v>0.08580550293924216</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.09557520556642594</v>
+        <v>-0.2926230094899172</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0249688886881168</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.1310462989883689</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.1202566784425576</v>
+        <v>-0.3204740566549251</v>
       </c>
       <c r="C25" t="n">
-        <v>0.0002595508447702987</v>
+        <v>0.01182352510263609</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>***</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>-0.1808324811066227</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.002544954583323742</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Age</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>-87428523739.9176</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.8041687820981194</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Gender</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>-87428523739.94202</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.8041687820980659</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>*</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
